--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A2:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="Q23" sqref="Q22:Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,14 +522,7 @@
     <col min="5" max="5" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="7.109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
